--- a/CancunBeachParty_GC.xlsx
+++ b/CancunBeachParty_GC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ric/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ric/Documents/GitHub/Sargasso_Subsidy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E6074D5-8587-A149-899C-07C53E85B0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4967A8D7-FA43-3943-A3AA-326E53F2DCEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="12-19-22ch1DL" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="86">
   <si>
     <t>12-19-22ch1_01.CHR</t>
   </si>
@@ -249,6 +249,36 @@
   </si>
   <si>
     <t>1SDt1</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Jungle</t>
+  </si>
+  <si>
+    <t>Dune</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>Sargassum</t>
+  </si>
+  <si>
+    <t>T0</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>Block</t>
   </si>
 </sst>
 </file>
@@ -2553,552 +2583,948 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="2" max="6" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="E1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="G2">
         <v>4.8239999999999998</v>
       </c>
-      <c r="D2">
+      <c r="H2">
         <v>906.45699999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="G3">
         <v>1.252</v>
       </c>
-      <c r="D3">
+      <c r="H3">
         <v>323.60300000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>42</v>
       </c>
-      <c r="C4">
+      <c r="G4">
         <v>26.506</v>
       </c>
-      <c r="D4">
+      <c r="H4">
         <v>551.69949999999994</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>42</v>
       </c>
-      <c r="C5">
+      <c r="G5">
         <v>22.463000000000001</v>
       </c>
-      <c r="D5">
+      <c r="H5">
         <v>292.56849999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>43</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6">
         <v>76.364000000000004</v>
       </c>
-      <c r="D6">
+      <c r="H6">
         <v>2054.9749999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>44</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7">
         <v>63.77</v>
       </c>
-      <c r="D7">
+      <c r="H7">
         <v>4506.5084999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>45</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8">
         <v>64.707499999999996</v>
       </c>
-      <c r="D8">
+      <c r="H8">
         <v>2867.5439999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9">
         <v>62.268999999999998</v>
       </c>
-      <c r="D9">
+      <c r="H9">
         <v>2326.5729999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
         <v>47</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10">
         <v>51.506999999999998</v>
       </c>
-      <c r="D10">
+      <c r="H10">
         <v>3980.6565000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>48</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11">
         <v>44.76</v>
       </c>
-      <c r="D11">
+      <c r="H11">
         <v>32926.54</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
         <v>49</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12">
         <v>75.232500000000002</v>
       </c>
-      <c r="D12">
+      <c r="H12">
         <v>2473.2739999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
         <v>50</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13">
         <v>68.850999999999999</v>
       </c>
-      <c r="D13">
+      <c r="H13">
         <v>1986.261</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
         <v>51</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14">
         <v>96.040999999999997</v>
       </c>
-      <c r="D14">
+      <c r="H14">
         <v>2649.7620000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15">
         <v>40.064</v>
       </c>
-      <c r="D15">
+      <c r="H15">
         <v>5809.6769999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
         <v>53</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16">
         <v>78.1995</v>
       </c>
-      <c r="D16">
+      <c r="H16">
         <v>1537.9359999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
         <v>54</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17">
         <v>59.875</v>
       </c>
-      <c r="D17">
+      <c r="H17">
         <v>3543.0135</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
       </c>
-      <c r="C18">
+      <c r="G18">
         <v>13.797000000000001</v>
       </c>
-      <c r="D18">
+      <c r="H18">
         <v>5510.0219999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
         <v>56</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19">
         <v>71.351500000000001</v>
       </c>
-      <c r="D19">
+      <c r="H19">
         <v>1469.703</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
         <v>57</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20">
         <v>44.384</v>
       </c>
-      <c r="D20">
+      <c r="H20">
         <v>4621.4915000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21">
         <v>101.4405</v>
       </c>
-      <c r="D21">
+      <c r="H21">
         <v>2437.8274999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>59</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22">
         <v>47.953000000000003</v>
       </c>
-      <c r="D22">
+      <c r="H22">
         <v>7330.692</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>60</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23">
         <v>65.691999999999993</v>
       </c>
-      <c r="D23">
+      <c r="H23">
         <v>1734.7539999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24" t="s">
         <v>61</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24">
         <v>67.033500000000004</v>
       </c>
-      <c r="D24">
+      <c r="H24">
         <v>9506.7669999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25" t="s">
         <v>62</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" t="s">
+        <v>83</v>
+      </c>
+      <c r="G25">
         <v>70.456500000000005</v>
       </c>
-      <c r="D25">
+      <c r="H25">
         <v>1007.896</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26" t="s">
         <v>63</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26">
         <v>49.368000000000002</v>
       </c>
-      <c r="D26">
+      <c r="H26">
         <v>1802.86</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>28</v>
       </c>
       <c r="B27" t="s">
         <v>64</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" t="s">
+        <v>83</v>
+      </c>
+      <c r="G27">
         <v>60.814999999999998</v>
       </c>
-      <c r="D27">
+      <c r="H27">
         <v>1108.327</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="B28" t="s">
         <v>65</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" t="s">
+        <v>84</v>
+      </c>
+      <c r="G28">
         <v>81.179000000000002</v>
       </c>
-      <c r="D28">
+      <c r="H28">
         <v>1036.3800000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29" t="s">
         <v>66</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" t="s">
+        <v>83</v>
+      </c>
+      <c r="G29">
         <v>82.968999999999994</v>
       </c>
-      <c r="D29">
+      <c r="H29">
         <v>1299.6959999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>31</v>
       </c>
       <c r="B30" t="s">
         <v>67</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30">
         <v>68.349000000000004</v>
       </c>
-      <c r="D30">
+      <c r="H30">
         <v>8054.9049999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>32</v>
       </c>
       <c r="B31" t="s">
         <v>55</v>
       </c>
-      <c r="C31">
+      <c r="G31">
         <v>13.135999999999999</v>
       </c>
-      <c r="D31">
+      <c r="H31">
         <v>4761.6959999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>33</v>
       </c>
       <c r="B32" t="s">
         <v>68</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>82</v>
+      </c>
+      <c r="F32" t="s">
+        <v>83</v>
+      </c>
+      <c r="G32">
         <v>82.775999999999996</v>
       </c>
-      <c r="D32">
+      <c r="H32">
         <v>1244.386</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>34</v>
       </c>
       <c r="B33" t="s">
         <v>69</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>82</v>
+      </c>
+      <c r="F33" t="s">
+        <v>84</v>
+      </c>
+      <c r="G33">
         <v>78.16</v>
       </c>
-      <c r="D33">
+      <c r="H33">
         <v>2899.0920000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>35</v>
       </c>
       <c r="B34" t="s">
         <v>70</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>81</v>
+      </c>
+      <c r="F34" t="s">
+        <v>83</v>
+      </c>
+      <c r="G34">
         <v>85.653999999999996</v>
       </c>
-      <c r="D34">
+      <c r="H34">
         <v>940.1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>36</v>
       </c>
       <c r="B35" t="s">
         <v>71</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>81</v>
+      </c>
+      <c r="F35" t="s">
+        <v>84</v>
+      </c>
+      <c r="G35">
         <v>74.968999999999994</v>
       </c>
-      <c r="D35">
+      <c r="H35">
         <v>1019.159</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>37</v>
       </c>
       <c r="B36" t="s">
         <v>72</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>81</v>
+      </c>
+      <c r="F36" t="s">
+        <v>83</v>
+      </c>
+      <c r="G36">
         <v>68.206000000000003</v>
       </c>
-      <c r="D36">
+      <c r="H36">
         <v>970.23299999999995</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>38</v>
       </c>
       <c r="B37" t="s">
         <v>73</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>81</v>
+      </c>
+      <c r="F37" t="s">
+        <v>84</v>
+      </c>
+      <c r="G37">
         <v>40.944000000000003</v>
       </c>
-      <c r="D37">
+      <c r="H37">
         <v>903.30200000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>39</v>
       </c>
       <c r="B38" t="s">
         <v>74</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>82</v>
+      </c>
+      <c r="F38" t="s">
+        <v>83</v>
+      </c>
+      <c r="G38">
         <v>64.436499999999995</v>
       </c>
-      <c r="D38">
+      <c r="H38">
         <v>946.60799999999995</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>40</v>
       </c>
       <c r="B39" t="s">
         <v>75</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>82</v>
+      </c>
+      <c r="F39" t="s">
+        <v>84</v>
+      </c>
+      <c r="G39">
         <v>45.267000000000003</v>
       </c>
-      <c r="D39">
+      <c r="H39">
         <v>9067.8410000000003</v>
       </c>
     </row>
